--- a/Experiments/Measurements/Single Banner Vertical/S path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/S path/Antenna_4/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-31.48745000287764</v>
+        <v>-31.48745000287739</v>
       </c>
       <c r="H2" t="n">
         <v>192.4612422352559</v>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-49.4317943356649</v>
+        <v>-49.43179433566469</v>
       </c>
       <c r="H3" t="n">
         <v>195.5918965742195</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12.83099714212674</v>
+        <v>12.83099714212686</v>
       </c>
       <c r="H4" t="n">
-        <v>189.5857952845385</v>
+        <v>189.5857952845386</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-22.39656385602104</v>
+        <v>-22.396563856021</v>
       </c>
       <c r="H5" t="n">
         <v>200.7499764918922</v>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53.13398139570858</v>
+        <v>53.13398139570865</v>
       </c>
       <c r="H6" t="n">
         <v>157.7006954204186</v>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60.92239220197123</v>
+        <v>60.92239220197148</v>
       </c>
       <c r="H7" t="n">
         <v>167.602297278335</v>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>20.88607661598395</v>
+        <v>20.88607661598421</v>
       </c>
       <c r="H8" t="n">
         <v>152.1595657318793</v>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7.409425387421231</v>
+        <v>7.409425387421447</v>
       </c>
       <c r="H9" t="n">
-        <v>155.7975619041759</v>
+        <v>155.797561904176</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>53.82691201723085</v>
+        <v>53.82691201723103</v>
       </c>
       <c r="H10" t="n">
-        <v>140.2109456918165</v>
+        <v>140.2109456918166</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-13.61116523864491</v>
+        <v>-13.61116523864487</v>
       </c>
       <c r="H11" t="n">
-        <v>163.2020849265537</v>
+        <v>163.2020849265536</v>
       </c>
     </row>
     <row r="12">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>36.92890443714685</v>
+        <v>36.92890443714695</v>
       </c>
       <c r="H12" t="n">
         <v>125.7646955381982</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>90.55814035641988</v>
+        <v>90.5581403564201</v>
       </c>
       <c r="H13" t="n">
-        <v>144.759104788643</v>
+        <v>144.7591047886431</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>124.3349893809534</v>
+        <v>124.3349893809537</v>
       </c>
       <c r="H14" t="n">
-        <v>99.84250554856922</v>
+        <v>99.84250554856926</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>104.7238505133081</v>
+        <v>104.7238505133083</v>
       </c>
       <c r="H15" t="n">
-        <v>98.64151674999958</v>
+        <v>98.64151674999971</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>83.5968167606852</v>
+        <v>83.59681676068537</v>
       </c>
       <c r="H16" t="n">
-        <v>98.38513072007224</v>
+        <v>98.38513072007235</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>64.08170693051079</v>
+        <v>64.08170693051086</v>
       </c>
       <c r="H17" t="n">
-        <v>96.87597344858096</v>
+        <v>96.87597344858089</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>60.8753201331654</v>
+        <v>60.87532013316548</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68772835112711</v>
+        <v>85.68772835112702</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>124.5255925511044</v>
+        <v>124.5255925511047</v>
       </c>
       <c r="H19" t="n">
-        <v>86.72643630761085</v>
+        <v>86.72643630761091</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>124.3775743402972</v>
+        <v>124.3775743402974</v>
       </c>
       <c r="H20" t="n">
-        <v>79.60992320172903</v>
+        <v>79.60992320172907</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>104.6550758776801</v>
+        <v>104.6550758776803</v>
       </c>
       <c r="H21" t="n">
-        <v>78.12440963032718</v>
+        <v>78.12440963032731</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>84.69531885883612</v>
+        <v>84.69531885883629</v>
       </c>
       <c r="H22" t="n">
-        <v>76.73381821023398</v>
+        <v>76.73381821023412</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>64.76328415304461</v>
+        <v>64.76328415304468</v>
       </c>
       <c r="H23" t="n">
-        <v>75.29608412879215</v>
+        <v>75.29608412879206</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>79.32353949796673</v>
+        <v>79.32353949796638</v>
       </c>
       <c r="H24" t="n">
-        <v>86.35278670461241</v>
+        <v>86.35278670461216</v>
       </c>
     </row>
     <row r="25">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>51.75464994973272</v>
+        <v>51.75464994973293</v>
       </c>
       <c r="H25" t="n">
         <v>169.694630320478</v>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>37.96236212412004</v>
+        <v>37.96236212412023</v>
       </c>
       <c r="H26" t="n">
-        <v>167.965074868191</v>
+        <v>167.9650748681911</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>94.53531538128561</v>
+        <v>94.53531538128578</v>
       </c>
       <c r="H29" t="n">
-        <v>123.0746260935792</v>
+        <v>123.0746260935793</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>94.50705361650462</v>
+        <v>94.50705361650481</v>
       </c>
       <c r="H30" t="n">
-        <v>104.668942751331</v>
+        <v>104.6689427513311</v>
       </c>
     </row>
     <row r="31">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>48.3670363608493</v>
+        <v>48.36703636084951</v>
       </c>
       <c r="H31" t="n">
         <v>182.1397990642297</v>
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>65.40696437840023</v>
+        <v>65.40696437839993</v>
       </c>
       <c r="H33" t="n">
-        <v>158.1439975324568</v>
+        <v>158.1439975324566</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>49.83129707742575</v>
+        <v>49.83129707742551</v>
       </c>
       <c r="H34" t="n">
-        <v>123.9959481344286</v>
+        <v>123.9959481344283</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>114.5790942686289</v>
+        <v>114.5790942686291</v>
       </c>
       <c r="H36" t="n">
-        <v>105.7049482801984</v>
+        <v>105.7049482801985</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>79.48379800254912</v>
+        <v>79.48379800254877</v>
       </c>
       <c r="H37" t="n">
-        <v>122.4094669717115</v>
+        <v>122.4094669717114</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>18.06176381481346</v>
+        <v>18.06176381481367</v>
       </c>
       <c r="H39" t="n">
-        <v>184.0058695276158</v>
+        <v>184.0058695276159</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>89.65755268986558</v>
+        <v>89.65755268986548</v>
       </c>
       <c r="H40" t="n">
-        <v>84.44041385521983</v>
+        <v>84.44041385521963</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>16.58153072176806</v>
+        <v>16.58153072176819</v>
       </c>
       <c r="H42" t="n">
-        <v>163.221551409646</v>
+        <v>163.2215514096461</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>79.48930191427354</v>
+        <v>79.48930191427318</v>
       </c>
       <c r="H44" t="n">
-        <v>78.49991468066928</v>
+        <v>78.49991468066901</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>94.53101888774792</v>
+        <v>94.53101888774809</v>
       </c>
       <c r="H47" t="n">
-        <v>92.21372459318053</v>
+        <v>92.21372459318063</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>109.7666128911557</v>
+        <v>109.7666128911558</v>
       </c>
       <c r="H49" t="n">
-        <v>131.9089631761736</v>
+        <v>131.9089631761737</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>77.65829783462935</v>
+        <v>77.65829783462901</v>
       </c>
       <c r="H50" t="n">
-        <v>77.67332521876733</v>
+        <v>77.67332521876703</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>104.6881894721909</v>
+        <v>104.6881894721911</v>
       </c>
       <c r="H51" t="n">
-        <v>77.78568383476825</v>
+        <v>77.78568383476838</v>
       </c>
     </row>
   </sheetData>
